--- a/Test_template.xlsx
+++ b/Test_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amark/Documents/GitHub/SheetFormatter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AC3EE0-0ED8-7541-9DE1-7E2B78180DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84999EFB-DC74-6F43-B415-B1EA0DDEB020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="500" windowWidth="24360" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="500" windowWidth="24360" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN SHEET" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,24 @@
     <sheet name="Marketing Advertising" sheetId="3" r:id="rId3"/>
     <sheet name="Outsourcing" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="650">
   <si>
     <t>First Name</t>
   </si>
@@ -1970,13 +1982,16 @@
   </si>
   <si>
     <t>http://www.linkedin.com/in/debanjali-roy-315a801a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G1:V28   F1 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2010,6 +2025,12 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2038,7 +2059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2048,6 +2069,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2368,9 +2392,9 @@
   </sheetPr>
   <dimension ref="A1:V567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4468,722 +4492,1998 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1">
+        <v>40</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1">
+        <v>40</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="R34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1">
+        <v>40</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1">
+        <v>40</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="1">
+        <v>40</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="R37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="1">
+        <v>39</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="1">
+        <v>39</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="50" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="51" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <v>10</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
+      <c r="P51" s="3"/>
+      <c r="S51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="52" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="A52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" s="1">
+        <v>32</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="O52" s="3"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="P52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="53" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="54" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+      <c r="A54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" s="1">
+        <v>32</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="O54" s="3"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="P54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="55" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="A55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" s="1">
+        <v>32</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="O55" s="3"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
+      <c r="P55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="56" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+      <c r="A56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" s="1">
+        <v>32</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="O56" s="3"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
+      <c r="P56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="57" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="A57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H57" s="1">
+        <v>32</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="O57" s="3"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="58" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+      <c r="A58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H58" s="1">
+        <v>32</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="O58" s="3"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
+      <c r="P58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="59" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
+      <c r="A59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="O59" s="3"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="60" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
+      <c r="A60" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="1">
+        <v>32</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
+      <c r="P60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="61" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="A61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" s="1">
+        <v>32</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="O61" s="3"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
+      <c r="P61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="62" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G62" s="1">
+        <v>13239224996</v>
+      </c>
+      <c r="H62" s="1">
+        <v>130</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="S62" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="63" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="4"/>
+      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -5194,20 +6494,18 @@
     </row>
     <row r="64" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="4"/>
+      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -17177,6 +18475,11 @@
     <hyperlink ref="M32" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
     <hyperlink ref="N32" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="O32" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D33" r:id="rId155" display="http://www.linkedin.com/in/ziyaad-f-05b66b14a" xr:uid="{26DB2D4B-4F04-2B41-8032-B94FFF61B9CF}"/>
+    <hyperlink ref="E33" r:id="rId156" display="http://www.taskdrive.com/" xr:uid="{BB7EE86D-12E8-6A40-B35A-8A2A93F45D06}"/>
+    <hyperlink ref="K33" r:id="rId157" display="http://www.linkedin.com/company/taskdrive" xr:uid="{ACA6DC0A-FA9C-5744-8C2B-CA7AF8B16017}"/>
+    <hyperlink ref="L33" r:id="rId158" display="https://www.facebook.com/taskdrivehq" xr:uid="{8821A209-B259-A24D-8642-D8679C18069B}"/>
+    <hyperlink ref="M33" r:id="rId159" display="https://twitter.com/taskdrive" xr:uid="{7C1408E5-3080-DB4C-9C67-FF0A576ABD95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17187,9 +18490,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -17423,9 +18728,231 @@
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="8" t="s">
         <v>113</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17439,6 +18966,8 @@
     <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{C26D97C1-787C-9942-8C9A-5848065FABA5}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{16A7B0D6-0693-A34D-B273-99506C3D9854}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17452,8 +18981,8 @@
   <dimension ref="A1:Z490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19391,7 +20920,7 @@
         <v>225</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>36</v>
+        <v>649</v>
       </c>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -19399,756 +20928,1872 @@
       <c r="Z28" s="6"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
+        <v>3</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="P29" s="9"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
+      <c r="R29" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="6">
+        <v>61408002684</v>
+      </c>
+      <c r="H31" s="6">
+        <v>6</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="6">
+        <v>18443605323</v>
+      </c>
+      <c r="H32" s="6">
+        <v>7</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1733639049</v>
+      </c>
+      <c r="H33" s="6">
+        <v>8</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H34" s="6">
+        <v>14</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H35" s="6">
+        <v>14</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H36" s="6">
+        <v>16</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H37" s="6">
+        <v>16</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H38" s="6">
+        <v>17</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="N38" s="9"/>
+      <c r="O38" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H39" s="6">
+        <v>17</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H40" s="6">
+        <v>17</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H41" s="6">
+        <v>18</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="J41" s="6"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
+      <c r="K41" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="A42" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H42" s="6">
+        <v>18</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="J42" s="6"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
+      <c r="K42" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="V42" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="A43" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H43" s="6">
+        <v>18</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="J43" s="6"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
+      <c r="K43" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="V43" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="A44" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H44" s="6">
+        <v>18</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="J44" s="6"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
+      <c r="K44" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="V44" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="A45" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H45" s="6">
+        <v>18</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="J45" s="6"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
+      <c r="K45" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="A46" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G46" s="6">
+        <v>13477095999</v>
+      </c>
+      <c r="H46" s="6">
+        <v>20</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
+      <c r="R46" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
+      <c r="V46" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
+      <c r="A47" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G47" s="6">
+        <v>13477095999</v>
+      </c>
+      <c r="H47" s="6">
+        <v>20</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
+      <c r="V47" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
+      <c r="A48" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G48" s="6">
+        <v>13477095999</v>
+      </c>
+      <c r="H48" s="6">
+        <v>20</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
+      <c r="V48" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="A49" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="G49" s="6">
+        <v>13477095999</v>
+      </c>
+      <c r="H49" s="6">
+        <v>20</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
+      <c r="R49" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
+      <c r="V49" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
     <row r="50" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="A50" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="H50" s="6">
+        <v>23</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="U50" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
     <row r="51" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
+      <c r="A51" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="H51" s="6">
+        <v>23</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="U51" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
     <row r="52" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="A52" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>515</v>
+      </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="H52" s="6">
+        <v>24</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
     <row r="53" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
+      <c r="A53" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="H53" s="6">
+        <v>24</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
     <row r="54" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="A54" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>515</v>
+      </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="H54" s="6">
+        <v>24</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
     <row r="55" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="A55" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>515</v>
+      </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="H55" s="6">
+        <v>24</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>649</v>
+      </c>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
@@ -31075,6 +33720,128 @@
     <hyperlink ref="M28" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
     <hyperlink ref="N28" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
     <hyperlink ref="O28" r:id="rId122" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="D29" r:id="rId123" display="http://fullfunnel.io/" xr:uid="{379BF408-F710-B141-9FF8-6F64245B9B66}"/>
+    <hyperlink ref="E29" r:id="rId124" display="http://fullfunnel.io/" xr:uid="{4C54E301-704D-2941-AD33-17BFDB8EB633}"/>
+    <hyperlink ref="K29" r:id="rId125" xr:uid="{38CBA609-AD25-AE47-AF5F-730B3AA9E567}"/>
+    <hyperlink ref="L29" r:id="rId126" display="http://www.fullfunnel.io/" xr:uid="{8A0AA7DD-7333-AB42-9F3F-69B95722A521}"/>
+    <hyperlink ref="M29" r:id="rId127" xr:uid="{0A7A02EA-67E1-F043-845E-EA428EC550B2}"/>
+    <hyperlink ref="O29" r:id="rId128" xr:uid="{344FEC1B-732F-6542-BC29-EC0FF81FEA53}"/>
+    <hyperlink ref="K30" r:id="rId129" xr:uid="{6BBCC260-4AAA-364F-95B9-12523ACEEAC3}"/>
+    <hyperlink ref="L30" r:id="rId130" display="http://www.risefuel.com/" xr:uid="{9BAD9846-8823-564B-89B7-BD89C03A8BD7}"/>
+    <hyperlink ref="M30" r:id="rId131" xr:uid="{956099B9-730B-674F-8EF0-36D4AE2C2E63}"/>
+    <hyperlink ref="N30" r:id="rId132" xr:uid="{A5B1295F-3611-C940-8B01-CC1E37FEA252}"/>
+    <hyperlink ref="O30" r:id="rId133" xr:uid="{57A6B69C-FA28-7D42-9959-6F03EFDF614E}"/>
+    <hyperlink ref="K31" r:id="rId134" xr:uid="{48BB7689-0508-2246-B558-E9D47A82CEF2}"/>
+    <hyperlink ref="L31" r:id="rId135" display="http://www.leadagency.com.au/" xr:uid="{3208E084-09EA-D04C-A3C6-5D2FB7CAA668}"/>
+    <hyperlink ref="M31" r:id="rId136" xr:uid="{B6E0FA14-E9A7-5944-AD78-82264DCEC893}"/>
+    <hyperlink ref="N31" r:id="rId137" xr:uid="{E5DA54F4-88B5-9641-BEB6-1B4F287355DE}"/>
+    <hyperlink ref="O31" r:id="rId138" xr:uid="{F205F33E-DBA0-F149-8105-26200BF66BDB}"/>
+    <hyperlink ref="K32" r:id="rId139" xr:uid="{8B9AE744-C5BE-4B42-B6E4-D8184A90D093}"/>
+    <hyperlink ref="L32" r:id="rId140" display="http://www.360leads.com/" xr:uid="{E801EC22-CF2C-3745-AC3F-A4FD4B7C040D}"/>
+    <hyperlink ref="M32" r:id="rId141" xr:uid="{3974623A-BEBE-6D4E-9D74-48392FB643A8}"/>
+    <hyperlink ref="O32" r:id="rId142" xr:uid="{C7406BB2-03C4-334B-B073-6FED3E9E56CE}"/>
+    <hyperlink ref="K33" r:id="rId143" xr:uid="{21596BF2-F4B5-4543-9457-8667ACBAA1D2}"/>
+    <hyperlink ref="L33" r:id="rId144" display="http://www.theleadengine.co.uk/" xr:uid="{97995B86-0549-1044-A93B-2D38B0E4CFC6}"/>
+    <hyperlink ref="M33" r:id="rId145" xr:uid="{6280E650-7773-A94B-9E99-7CF9D4524AB1}"/>
+    <hyperlink ref="K34" r:id="rId146" xr:uid="{E3F940B4-F035-1E46-BFCD-3F7C760FA492}"/>
+    <hyperlink ref="L34" r:id="rId147" display="http://www.tej9.com/" xr:uid="{773C13E8-4B30-9245-B618-F0CFDA2616D3}"/>
+    <hyperlink ref="M34" r:id="rId148" xr:uid="{F193E103-218F-C342-868B-80500C61D7E4}"/>
+    <hyperlink ref="N34" r:id="rId149" xr:uid="{F259F73F-F062-9141-8C45-4BE6FEFDABCB}"/>
+    <hyperlink ref="O34" r:id="rId150" xr:uid="{454A94C9-5D98-D049-BA0E-01CFBB756E82}"/>
+    <hyperlink ref="K35" r:id="rId151" xr:uid="{E085D65F-0550-DF4F-A09D-D9BE4FF45B1F}"/>
+    <hyperlink ref="L35" r:id="rId152" display="http://www.keomarketing.com/" xr:uid="{000BFFFB-0895-B245-9B37-C709CF3F62AE}"/>
+    <hyperlink ref="M35" r:id="rId153" xr:uid="{2B7F68BE-22A5-5441-BA1D-F647280ABB54}"/>
+    <hyperlink ref="N35" r:id="rId154" xr:uid="{07627348-9342-664B-A9AB-C697E644C586}"/>
+    <hyperlink ref="O35" r:id="rId155" xr:uid="{A8E2B575-2D53-C049-9380-C0D27E31745B}"/>
+    <hyperlink ref="K36" r:id="rId156" xr:uid="{24C79AD5-690B-6745-8B47-0E3432C615A9}"/>
+    <hyperlink ref="L36" r:id="rId157" display="http://www.manageyourleads.com/" xr:uid="{9472EC88-36F7-1142-9A31-BD10EB6EC649}"/>
+    <hyperlink ref="M36" r:id="rId158" xr:uid="{7868771D-5E7E-0744-963F-D53297FD7173}"/>
+    <hyperlink ref="N36" r:id="rId159" xr:uid="{4A665B9B-16BD-0F40-B8E5-4D43F640DEB4}"/>
+    <hyperlink ref="O36" r:id="rId160" xr:uid="{071BE579-EAE5-514F-B415-2D1BF5F5705B}"/>
+    <hyperlink ref="K37" r:id="rId161" xr:uid="{04C6E82C-31A1-ED49-B4B9-0C89482B3ACA}"/>
+    <hyperlink ref="L37" r:id="rId162" display="http://www.manageyourleads.com/" xr:uid="{187EEAA9-4A08-F349-8F8E-D6D73B0CF178}"/>
+    <hyperlink ref="M37" r:id="rId163" xr:uid="{8BBDEE17-0246-4848-AAD4-9773426457E5}"/>
+    <hyperlink ref="N37" r:id="rId164" xr:uid="{4B80BADA-BC21-A349-923C-FA9AA9E33639}"/>
+    <hyperlink ref="O37" r:id="rId165" xr:uid="{901398B1-6AE0-3F43-824F-1E0C37E53776}"/>
+    <hyperlink ref="K38" r:id="rId166" xr:uid="{D31D40A1-9C97-EA49-A446-41362AB78016}"/>
+    <hyperlink ref="L38" r:id="rId167" display="http://www.revenuezen.com/" xr:uid="{E7A0F303-CFA9-8742-941B-83B7E19D225D}"/>
+    <hyperlink ref="M38" r:id="rId168" xr:uid="{14DE475F-EC90-864D-B343-64B7B92152D2}"/>
+    <hyperlink ref="O38" r:id="rId169" xr:uid="{F3C4D87E-401F-F74A-AFD8-FF5E4227D037}"/>
+    <hyperlink ref="K39" r:id="rId170" xr:uid="{4FB82DCF-2ED6-AA41-AABB-1943699D2309}"/>
+    <hyperlink ref="L39" r:id="rId171" display="http://www.revenuezen.com/" xr:uid="{8887D987-A8BB-6849-9429-92766FF25063}"/>
+    <hyperlink ref="M39" r:id="rId172" xr:uid="{041BA6AC-7889-8D40-B580-7B064EE030CA}"/>
+    <hyperlink ref="O39" r:id="rId173" xr:uid="{B33374B9-325C-DC49-83C4-7E61EA1C645C}"/>
+    <hyperlink ref="K40" r:id="rId174" xr:uid="{E5882B6F-5761-E948-9846-42955AC2FD2A}"/>
+    <hyperlink ref="L40" r:id="rId175" display="http://www.revenuezen.com/" xr:uid="{FD86A048-AC52-DA4E-A983-3D07FA9EA253}"/>
+    <hyperlink ref="M40" r:id="rId176" xr:uid="{7D36EBD2-CF23-284A-902D-715ED12B011E}"/>
+    <hyperlink ref="O40" r:id="rId177" xr:uid="{ECFF8688-B96B-9247-B311-809DF91AE363}"/>
+    <hyperlink ref="K41" r:id="rId178" xr:uid="{3D41CE38-9594-CC4A-9936-4359CB16CE5E}"/>
+    <hyperlink ref="L41" r:id="rId179" display="http://www.outboundview.com/" xr:uid="{ADCC6A70-CEE3-5E40-BF3D-D666FE70341F}"/>
+    <hyperlink ref="M41" r:id="rId180" xr:uid="{E34F2BA6-A202-7B4F-90A9-48F60193E905}"/>
+    <hyperlink ref="N41" r:id="rId181" xr:uid="{7D26526A-9C11-F949-9796-917CB9C7F3A0}"/>
+    <hyperlink ref="O41" r:id="rId182" xr:uid="{236878E9-E87A-1043-AF5E-2EEC863AAB16}"/>
+    <hyperlink ref="K42" r:id="rId183" xr:uid="{505A0F73-95F0-F84C-AF72-812F755621B4}"/>
+    <hyperlink ref="L42" r:id="rId184" display="http://www.outboundview.com/" xr:uid="{0F9D303D-BDB3-5B45-A8D6-F03F5536231C}"/>
+    <hyperlink ref="M42" r:id="rId185" xr:uid="{94D5673F-EC0B-9840-906A-85F10155DCC5}"/>
+    <hyperlink ref="N42" r:id="rId186" xr:uid="{1E571CF5-93EF-6B44-B340-BFDB534264B7}"/>
+    <hyperlink ref="O42" r:id="rId187" xr:uid="{087A5F91-7318-3E41-AF53-F9F37AC53469}"/>
+    <hyperlink ref="K43" r:id="rId188" xr:uid="{DFF903CC-E1CF-5A40-A028-72B038632CEB}"/>
+    <hyperlink ref="L43" r:id="rId189" display="http://www.outboundview.com/" xr:uid="{6F853B11-4565-4E43-A0E5-DE640B15C3D4}"/>
+    <hyperlink ref="M43" r:id="rId190" xr:uid="{767DBA38-2E17-484F-A0BB-0C0392E6F42F}"/>
+    <hyperlink ref="N43" r:id="rId191" xr:uid="{FFEAD14C-DF9C-F046-892D-129EF7A7ADE3}"/>
+    <hyperlink ref="O43" r:id="rId192" xr:uid="{3DE115EF-137C-A749-B235-637FEC30BBF8}"/>
+    <hyperlink ref="K44" r:id="rId193" xr:uid="{2FDBFB46-EA73-F14D-B392-2CDD5D428EAD}"/>
+    <hyperlink ref="L44" r:id="rId194" display="http://www.outboundview.com/" xr:uid="{87EF1628-C409-8647-9DB3-9298BC584E3A}"/>
+    <hyperlink ref="M44" r:id="rId195" xr:uid="{9C270D20-D5FE-CB46-96F6-FF980591829B}"/>
+    <hyperlink ref="N44" r:id="rId196" xr:uid="{30838A18-4898-3B4D-8C68-BB33483D75C1}"/>
+    <hyperlink ref="O44" r:id="rId197" xr:uid="{DE380AAC-483D-ED4D-ACD6-248190BCBCBC}"/>
+    <hyperlink ref="K45" r:id="rId198" xr:uid="{034CFD14-11FF-6646-9D3F-CF03DBE9BB96}"/>
+    <hyperlink ref="L45" r:id="rId199" display="http://www.outboundview.com/" xr:uid="{63280E2B-8799-ED4E-B2D6-34C3924D6983}"/>
+    <hyperlink ref="M45" r:id="rId200" xr:uid="{0DD65F74-2891-2B43-A541-A5184961D915}"/>
+    <hyperlink ref="N45" r:id="rId201" xr:uid="{4AD2CBB8-7109-5442-9B1F-223F5E2F22AC}"/>
+    <hyperlink ref="O45" r:id="rId202" xr:uid="{FE5F3152-3D8C-FB41-810B-767F6E81E7BA}"/>
+    <hyperlink ref="K46" r:id="rId203" xr:uid="{D0BA81F2-8C33-4D46-9D69-2D4B672D056E}"/>
+    <hyperlink ref="L46" r:id="rId204" display="http://www.datarob.com/" xr:uid="{306833B6-8066-5E43-BA9D-81917242008F}"/>
+    <hyperlink ref="M46" r:id="rId205" xr:uid="{7FD48698-C78B-1C48-85C8-A9C637D73A1B}"/>
+    <hyperlink ref="K47" r:id="rId206" xr:uid="{C6955C32-9414-124F-B8BD-551DFA95FE7D}"/>
+    <hyperlink ref="L47" r:id="rId207" display="http://www.datarob.com/" xr:uid="{4D49DCC5-0762-3341-9FCC-3C92F8D9685B}"/>
+    <hyperlink ref="M47" r:id="rId208" xr:uid="{DAD936B3-6517-AB43-A947-0DE9C83082FE}"/>
+    <hyperlink ref="K48" r:id="rId209" xr:uid="{43B521ED-7567-4749-89C2-7262F29B988A}"/>
+    <hyperlink ref="L48" r:id="rId210" display="http://www.datarob.com/" xr:uid="{257926A6-D312-C041-BF0C-1C9743454CAF}"/>
+    <hyperlink ref="M48" r:id="rId211" xr:uid="{BE16838C-2A96-5E4C-88DE-7D2E59E7C09D}"/>
+    <hyperlink ref="K49" r:id="rId212" xr:uid="{3A33F341-273E-B045-AC7E-102F59A5ADC1}"/>
+    <hyperlink ref="L49" r:id="rId213" display="http://www.datarob.com/" xr:uid="{858A9C32-20BB-F948-A5E0-AAE20006014F}"/>
+    <hyperlink ref="M49" r:id="rId214" xr:uid="{7AF21DBD-A0C4-7049-8408-60702120C0C8}"/>
+    <hyperlink ref="K50" r:id="rId215" xr:uid="{F9D49E0F-8715-C04F-BDDB-C06F3174DD98}"/>
+    <hyperlink ref="L50" r:id="rId216" display="http://www.marketjoy.com/" xr:uid="{33CCFA88-652A-6445-944D-9EE12020A700}"/>
+    <hyperlink ref="M50" r:id="rId217" xr:uid="{700A69A3-BA59-CC4A-9876-BDEA9507350F}"/>
+    <hyperlink ref="N50" r:id="rId218" xr:uid="{83E88DB3-88DB-3A43-8C62-FE5BE355D0BB}"/>
+    <hyperlink ref="O50" r:id="rId219" xr:uid="{DBF567A2-1140-E248-A0A4-D685BC2908CF}"/>
+    <hyperlink ref="K51" r:id="rId220" xr:uid="{10605F2B-0C89-8146-AF5A-2C6E165112BC}"/>
+    <hyperlink ref="L51" r:id="rId221" display="http://www.marketjoy.com/" xr:uid="{A8F2CB00-2D2F-7F40-ACB9-C41205F60B98}"/>
+    <hyperlink ref="M51" r:id="rId222" xr:uid="{0225CEB8-3F1D-404B-A755-0032CBC373B3}"/>
+    <hyperlink ref="N51" r:id="rId223" xr:uid="{767BADAC-02D5-4C4E-87C9-055806BA1A4A}"/>
+    <hyperlink ref="O51" r:id="rId224" xr:uid="{98BEB5B6-1945-FB47-BA87-A7373DD3D13D}"/>
+    <hyperlink ref="K52" r:id="rId225" xr:uid="{4D559568-0240-B740-BA04-1D0EF88585B8}"/>
+    <hyperlink ref="L52" r:id="rId226" display="http://www.prosalesconnection.com/" xr:uid="{EC3CC809-8DA1-2D45-B071-9853B9AE7E5A}"/>
+    <hyperlink ref="M52" r:id="rId227" xr:uid="{CAD531DB-82A9-6F47-8AA3-FE09CA6DDF3A}"/>
+    <hyperlink ref="N52" r:id="rId228" xr:uid="{D1A9CAC3-825B-C846-AB2A-8536F35852C9}"/>
+    <hyperlink ref="O52" r:id="rId229" xr:uid="{BACEAC52-3AF1-E443-8633-035CBB7311F8}"/>
+    <hyperlink ref="K53" r:id="rId230" xr:uid="{39EF35CE-69D7-0745-8E48-78E081A2A577}"/>
+    <hyperlink ref="L53" r:id="rId231" display="http://www.prosalesconnection.com/" xr:uid="{6C05A50A-1BD5-264E-AAED-0239C2DAA93F}"/>
+    <hyperlink ref="M53" r:id="rId232" xr:uid="{DF70CC05-514A-F248-AECC-A63A040CA9D9}"/>
+    <hyperlink ref="N53" r:id="rId233" xr:uid="{6F3D38EE-9E4A-054A-BA09-2A5233094427}"/>
+    <hyperlink ref="O53" r:id="rId234" xr:uid="{8DABFEE3-39AD-B743-9EC0-D7C5E38CA8AB}"/>
+    <hyperlink ref="K54" r:id="rId235" xr:uid="{3932E455-F3F8-E84C-BDD0-29891EA4F634}"/>
+    <hyperlink ref="L54" r:id="rId236" display="http://www.prosalesconnection.com/" xr:uid="{AD04C41A-94E9-F247-A68C-0E6FB4D265B5}"/>
+    <hyperlink ref="M54" r:id="rId237" xr:uid="{64C9C306-0EED-8D4C-9CC3-3B67A7873819}"/>
+    <hyperlink ref="N54" r:id="rId238" xr:uid="{871067E1-5ECC-1244-83CD-0A3329BCB950}"/>
+    <hyperlink ref="O54" r:id="rId239" xr:uid="{A504BDFE-4026-D445-9347-B723BEF76B9B}"/>
+    <hyperlink ref="K55" r:id="rId240" xr:uid="{1D9B9026-D6AB-924F-9A41-0B52C869A73B}"/>
+    <hyperlink ref="L55" r:id="rId241" display="http://www.prosalesconnection.com/" xr:uid="{B969ED54-5980-984F-9F22-E9213B8E7B39}"/>
+    <hyperlink ref="M55" r:id="rId242" xr:uid="{FFA3B588-C037-464F-A886-E30237A5F5A9}"/>
+    <hyperlink ref="N55" r:id="rId243" xr:uid="{3F87C23E-C686-4941-96F4-E84431DDCC35}"/>
+    <hyperlink ref="O55" r:id="rId244" xr:uid="{C6F4C923-2333-4841-9147-E2691BDACF4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31087,8 +33854,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32430,470 +35197,1279 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H21" s="1">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H22" s="1">
+        <v>49</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H23" s="1">
+        <v>49</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H24" s="1">
+        <v>130</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H25" s="1">
+        <v>49</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H26" s="1">
+        <v>49</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H27" s="1">
+        <v>130</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H28" s="1">
+        <v>49</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H29" s="1">
+        <v>49</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H30" s="1">
+        <v>49</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H31" s="1">
+        <v>49</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H32" s="1">
+        <v>49</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H33" s="1">
+        <v>49</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H34" s="1">
+        <v>49</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H35" s="1">
+        <v>49</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H36" s="1">
+        <v>49</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H37" s="1">
+        <v>130</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H38" s="1">
+        <v>130</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H39" s="1">
+        <v>130</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="P39" s="3"/>
+      <c r="S39" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="3"/>
@@ -32909,8 +36485,8 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -33132,6 +36708,107 @@
     <hyperlink ref="F3" r:id="rId99" xr:uid="{8F982FB3-D030-FB46-BE95-7FADB9CB949F}"/>
     <hyperlink ref="F20" r:id="rId100" xr:uid="{C3728B56-010C-2C44-8039-FF7F6CF8421E}"/>
     <hyperlink ref="F18" r:id="rId101" xr:uid="{B2CBEA2A-ABAC-8D42-B744-2BE59407D9EA}"/>
+    <hyperlink ref="F21" r:id="rId102" display="mailto:grodriquez@leaseasalesrep.com" xr:uid="{B4BB1905-2C1E-9B47-8096-3C975AAC9991}"/>
+    <hyperlink ref="K21" r:id="rId103" xr:uid="{787A52B2-128A-B949-A137-A6F53F930D49}"/>
+    <hyperlink ref="L21" r:id="rId104" display="http://www.leaseasalesrep.com/" xr:uid="{6F6AAFAE-5566-BD49-A956-BF96CB1B5305}"/>
+    <hyperlink ref="M21" r:id="rId105" xr:uid="{15E3C456-98C0-D441-8134-24B00223A3C8}"/>
+    <hyperlink ref="N21" r:id="rId106" xr:uid="{42B32896-3A61-F140-A4FC-276B631BDE72}"/>
+    <hyperlink ref="O21" r:id="rId107" xr:uid="{71EB1317-FE92-7A44-8CC8-DAA45922DC3F}"/>
+    <hyperlink ref="F22" r:id="rId108" display="mailto:mbozeman@leaseasalesrep.com" xr:uid="{7D5EF610-A607-F047-B5C0-C98F4AD83166}"/>
+    <hyperlink ref="K22" r:id="rId109" xr:uid="{AC8E239F-3B69-B946-88B0-48756E5045FD}"/>
+    <hyperlink ref="L22" r:id="rId110" display="http://www.leaseasalesrep.com/" xr:uid="{82C57203-5EA1-5B48-A91E-53AD013A4F48}"/>
+    <hyperlink ref="M22" r:id="rId111" xr:uid="{1B7680DC-1511-2648-AD7A-691AC550D8D7}"/>
+    <hyperlink ref="N22" r:id="rId112" xr:uid="{1A778C8A-9239-244E-B2A4-245199028F6E}"/>
+    <hyperlink ref="O22" r:id="rId113" xr:uid="{973C737C-C66D-5D49-8F56-CEA19C5A7A6F}"/>
+    <hyperlink ref="F23" r:id="rId114" display="mailto:ywashington@leaseasalesrep.com" xr:uid="{658C0BEA-9A2F-2347-8318-68C4BD4FD3B6}"/>
+    <hyperlink ref="K23" r:id="rId115" xr:uid="{52409E03-0F2C-CD48-A828-0BE05BEA4991}"/>
+    <hyperlink ref="L23" r:id="rId116" display="http://www.leaseasalesrep.com/" xr:uid="{C4919076-13C4-AE4B-A37E-2969C5B113C3}"/>
+    <hyperlink ref="M23" r:id="rId117" xr:uid="{8A55C173-093E-A644-B4A7-DA6EFE9E57ED}"/>
+    <hyperlink ref="N23" r:id="rId118" xr:uid="{8E461B2B-EE24-C24D-BFCF-9ED50CFB241A}"/>
+    <hyperlink ref="O23" r:id="rId119" xr:uid="{7689F382-E4EF-5B44-B5F8-FE9077E506C6}"/>
+    <hyperlink ref="K24" r:id="rId120" xr:uid="{6ADE6268-A0E4-BC47-8600-E43AD3CF601A}"/>
+    <hyperlink ref="L24" r:id="rId121" display="http://www.theglobalassociates.com/" xr:uid="{07F225A3-B9E6-5646-AB16-D1B4C62DD034}"/>
+    <hyperlink ref="M24" r:id="rId122" xr:uid="{7840F8EA-F00B-0143-AB38-B0103B704190}"/>
+    <hyperlink ref="N24" r:id="rId123" xr:uid="{AE32B7F2-0BF9-E342-AAA1-7E5F74ED61CE}"/>
+    <hyperlink ref="O24" r:id="rId124" xr:uid="{8FD15E0B-A0D1-A04D-A230-38AF6E6DBC4B}"/>
+    <hyperlink ref="F25" r:id="rId125" display="mailto:myeatman@leaseasalesrep.com" xr:uid="{8F83B595-B30C-D54F-ABBA-94BA73456860}"/>
+    <hyperlink ref="K25" r:id="rId126" xr:uid="{13B9AD8D-B45E-F746-B60E-50E56314ABBA}"/>
+    <hyperlink ref="L25" r:id="rId127" display="http://www.leaseasalesrep.com/" xr:uid="{2E1012AB-4A6B-B541-829A-5A2A3845B8F2}"/>
+    <hyperlink ref="M25" r:id="rId128" xr:uid="{E8371157-6328-A944-B1CC-F1498594AF81}"/>
+    <hyperlink ref="N25" r:id="rId129" xr:uid="{30A1076D-99F4-E541-983F-9E75B9DDE4DE}"/>
+    <hyperlink ref="O25" r:id="rId130" xr:uid="{78C7F0BB-8F98-6E42-ACBD-BC187C3CC3F9}"/>
+    <hyperlink ref="K26" r:id="rId131" xr:uid="{10861184-5231-A047-8A75-937A93E98148}"/>
+    <hyperlink ref="L26" r:id="rId132" display="http://www.leaseasalesrep.com/" xr:uid="{9475FC5B-E899-4A45-9A05-75E9CA1FA678}"/>
+    <hyperlink ref="M26" r:id="rId133" xr:uid="{BF26CC51-A5C1-2546-A928-A4AAA51CF93A}"/>
+    <hyperlink ref="N26" r:id="rId134" xr:uid="{ACA8E095-8104-F545-9834-59E3EFD58576}"/>
+    <hyperlink ref="O26" r:id="rId135" xr:uid="{F5F5C6B3-F69A-3E4D-B0F7-5323EDA28DC5}"/>
+    <hyperlink ref="K27" r:id="rId136" xr:uid="{8C01082A-D5F3-4C4C-AEF4-FCD410CFBCC0}"/>
+    <hyperlink ref="L27" r:id="rId137" display="http://www.theglobalassociates.com/" xr:uid="{8115C868-CD1C-F44A-8F16-43C4A7F0711D}"/>
+    <hyperlink ref="M27" r:id="rId138" xr:uid="{746B1AD1-5345-3C4C-8133-25EB1BE0AA51}"/>
+    <hyperlink ref="N27" r:id="rId139" xr:uid="{93C1CC66-AACC-E74C-B813-9B0821CCBBAD}"/>
+    <hyperlink ref="O27" r:id="rId140" xr:uid="{964E3118-A162-0245-8B96-EA8EE38FB49A}"/>
+    <hyperlink ref="K28" r:id="rId141" xr:uid="{366E3A69-DEC0-F64B-B478-CB5750615788}"/>
+    <hyperlink ref="L28" r:id="rId142" display="http://www.leaseasalesrep.com/" xr:uid="{A8FCA585-21AE-1E4B-A57C-70D7D687AA23}"/>
+    <hyperlink ref="M28" r:id="rId143" xr:uid="{0787A5BC-8393-1442-9336-3BECF9D4D8C6}"/>
+    <hyperlink ref="N28" r:id="rId144" xr:uid="{31310774-FDF8-C743-8932-1C57C27DC930}"/>
+    <hyperlink ref="O28" r:id="rId145" xr:uid="{14BCBCB9-4736-C54B-B0F1-9B00D80C601D}"/>
+    <hyperlink ref="K29" r:id="rId146" xr:uid="{AFB5EDC4-45E5-3C42-AF5F-D194C70B633B}"/>
+    <hyperlink ref="L29" r:id="rId147" display="http://www.leaseasalesrep.com/" xr:uid="{8D855470-46E9-074F-9ABE-7DF6E57D8FF7}"/>
+    <hyperlink ref="M29" r:id="rId148" xr:uid="{A599D96A-FF26-7744-AC5A-29BD5DB457C4}"/>
+    <hyperlink ref="N29" r:id="rId149" xr:uid="{286FEDA3-A25E-944C-92E5-5F6EDBEE3F7E}"/>
+    <hyperlink ref="O29" r:id="rId150" xr:uid="{88266950-6500-B544-A6AE-6C800081D390}"/>
+    <hyperlink ref="K30" r:id="rId151" xr:uid="{6467B49C-DE01-4D4D-93CF-50C3C220813B}"/>
+    <hyperlink ref="L30" r:id="rId152" display="http://www.leaseasalesrep.com/" xr:uid="{80FA3E66-971D-8C46-BA54-A95FCA0522F9}"/>
+    <hyperlink ref="M30" r:id="rId153" xr:uid="{682FAD51-3ED5-FD42-87F2-B8A339DDF9FE}"/>
+    <hyperlink ref="N30" r:id="rId154" xr:uid="{7FBE9802-7BA1-C44E-9ACC-282F155BCD4B}"/>
+    <hyperlink ref="O30" r:id="rId155" xr:uid="{6C758C3E-FBEA-3644-9986-0026DAA16508}"/>
+    <hyperlink ref="K31" r:id="rId156" xr:uid="{43830657-A041-A447-B6CF-E0A8DE6A867C}"/>
+    <hyperlink ref="L31" r:id="rId157" display="http://www.leaseasalesrep.com/" xr:uid="{EA0EB433-D8E6-B04F-B751-194BFD662F3E}"/>
+    <hyperlink ref="M31" r:id="rId158" xr:uid="{491381C7-34F3-4544-B54F-FDEB03B6B555}"/>
+    <hyperlink ref="N31" r:id="rId159" xr:uid="{4E3AB788-9D43-F047-ADC5-78E6553EE199}"/>
+    <hyperlink ref="O31" r:id="rId160" xr:uid="{8261C626-481A-7A41-9B75-1D8BFE200781}"/>
+    <hyperlink ref="K32" r:id="rId161" xr:uid="{F0E336A0-9F3E-204B-9C5F-73BBC985C22C}"/>
+    <hyperlink ref="L32" r:id="rId162" display="http://www.leaseasalesrep.com/" xr:uid="{22A90651-AC90-8C4D-B3F5-039392760170}"/>
+    <hyperlink ref="M32" r:id="rId163" xr:uid="{A11C08D8-837D-D54D-BAD3-7FA53A9E039D}"/>
+    <hyperlink ref="N32" r:id="rId164" xr:uid="{56965D03-1136-4A4A-B48C-3BF9A59D6A25}"/>
+    <hyperlink ref="O32" r:id="rId165" xr:uid="{07B4E877-B742-9F4A-BFE0-6E726F7629F1}"/>
+    <hyperlink ref="K33" r:id="rId166" xr:uid="{33F72DCA-B050-1347-B31C-2C979C92DCC8}"/>
+    <hyperlink ref="L33" r:id="rId167" display="http://www.leaseasalesrep.com/" xr:uid="{275C9C9F-F47A-8042-9EA4-C9E4358A45CA}"/>
+    <hyperlink ref="M33" r:id="rId168" xr:uid="{7F37955A-9AD7-2648-8DD3-492B7A03B20E}"/>
+    <hyperlink ref="N33" r:id="rId169" xr:uid="{EB882D8D-6434-5D41-B760-8CA9C7BB8E3E}"/>
+    <hyperlink ref="O33" r:id="rId170" xr:uid="{B78DBB26-9D67-624A-8CEB-4666E8FF3450}"/>
+    <hyperlink ref="K34" r:id="rId171" xr:uid="{88C111C2-5041-E348-8F5D-551A43349347}"/>
+    <hyperlink ref="L34" r:id="rId172" display="http://www.leaseasalesrep.com/" xr:uid="{BC486957-AFDB-5847-B4DD-225446705CE5}"/>
+    <hyperlink ref="M34" r:id="rId173" xr:uid="{9199C4E1-B9D4-7445-923C-F08EFB1A02A3}"/>
+    <hyperlink ref="N34" r:id="rId174" xr:uid="{1DB010C4-814E-4D4D-B7AD-0D08B50988DE}"/>
+    <hyperlink ref="O34" r:id="rId175" xr:uid="{3EEFD1F1-8EA3-EE4D-8871-AD7F7EA99F14}"/>
+    <hyperlink ref="K35" r:id="rId176" xr:uid="{1C4BC6BC-0128-E948-8F9E-137A7CB10251}"/>
+    <hyperlink ref="L35" r:id="rId177" display="http://www.leaseasalesrep.com/" xr:uid="{98C76A96-EFA3-8F4D-8EFD-933EB8938184}"/>
+    <hyperlink ref="M35" r:id="rId178" xr:uid="{3D580E64-E558-BB4D-AEC9-E351B8E1C255}"/>
+    <hyperlink ref="N35" r:id="rId179" xr:uid="{44428526-B625-304D-BF2D-F31A7C5F8406}"/>
+    <hyperlink ref="O35" r:id="rId180" xr:uid="{365434BA-0FA1-E944-AA02-A12533E8202A}"/>
+    <hyperlink ref="K36" r:id="rId181" xr:uid="{7313A330-0D49-B84E-9CEA-6C96E2CDDA16}"/>
+    <hyperlink ref="L36" r:id="rId182" display="http://www.leaseasalesrep.com/" xr:uid="{2FDE449B-6976-094D-8B93-526C3348D8A2}"/>
+    <hyperlink ref="M36" r:id="rId183" xr:uid="{E7EAE55D-C72C-F14A-AC4E-9137BD310390}"/>
+    <hyperlink ref="N36" r:id="rId184" xr:uid="{45B0755F-5656-B145-8202-8F1BEF47354A}"/>
+    <hyperlink ref="O36" r:id="rId185" xr:uid="{CFD005A7-5ABF-764C-9464-393FA2FDE658}"/>
+    <hyperlink ref="F37" r:id="rId186" display="mailto:akash@theglobalassociates.com" xr:uid="{1C79CBDA-C26D-4648-A4AF-E3A956532606}"/>
+    <hyperlink ref="K37" r:id="rId187" xr:uid="{366D5EE0-B0CF-A049-813F-41D6356A3D5B}"/>
+    <hyperlink ref="L37" r:id="rId188" display="http://www.theglobalassociates.com/" xr:uid="{25873C73-5C0E-B341-AB41-F8AB32EE94F4}"/>
+    <hyperlink ref="M37" r:id="rId189" xr:uid="{33F3140A-64CF-504E-9543-D066ECB751D3}"/>
+    <hyperlink ref="N37" r:id="rId190" xr:uid="{D92C0A16-044B-9D42-B0EA-5D6BB4515740}"/>
+    <hyperlink ref="O37" r:id="rId191" xr:uid="{9181893D-3B20-114A-8277-0A521A8012B3}"/>
+    <hyperlink ref="K38" r:id="rId192" xr:uid="{EE1DBFC6-FBA7-F143-9606-6FE028544826}"/>
+    <hyperlink ref="L38" r:id="rId193" display="http://www.theglobalassociates.com/" xr:uid="{2D7E4B01-B25B-6A4E-8C85-14BECF6133B2}"/>
+    <hyperlink ref="M38" r:id="rId194" xr:uid="{CD657DB9-A496-3E47-B97B-BD49FB745332}"/>
+    <hyperlink ref="N38" r:id="rId195" xr:uid="{C888C9EB-A1AD-B24B-A2D3-D66128718342}"/>
+    <hyperlink ref="O38" r:id="rId196" xr:uid="{EC89D21F-4630-2045-B239-5CBF8DE86EDA}"/>
+    <hyperlink ref="F39" r:id="rId197" display="mailto:debanjali@theglobalassociates.com" xr:uid="{017AAA75-602E-0940-8673-CD4DC0BD1482}"/>
+    <hyperlink ref="K39" r:id="rId198" xr:uid="{DBCF7ACC-BB73-DA4D-87DA-8FA8FE1CEAFA}"/>
+    <hyperlink ref="L39" r:id="rId199" display="http://www.theglobalassociates.com/" xr:uid="{919214E9-8AD3-004F-B80C-D53FA7F8A3B9}"/>
+    <hyperlink ref="M39" r:id="rId200" xr:uid="{5E121599-1BE3-F840-80FB-10F1F2055914}"/>
+    <hyperlink ref="N39" r:id="rId201" xr:uid="{31DEF9EC-DE8B-4C41-B1D2-A29B66BC5693}"/>
+    <hyperlink ref="O39" r:id="rId202" xr:uid="{9944CEE8-925B-7444-A919-FDB49C0DF326}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
